--- a/rosters/2023/Golden State/Golden State.xlsx
+++ b/rosters/2023/Golden State/Golden State.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="101">
   <si>
     <t>No.</t>
   </si>
@@ -55,36 +55,33 @@
     <t>Draymond Green</t>
   </si>
   <si>
+    <t>Donte DiVincenzo</t>
+  </si>
+  <si>
+    <t>Klay Thompson</t>
+  </si>
+  <si>
+    <t>Jonathan Kuminga</t>
+  </si>
+  <si>
+    <t>Anthony Lamb (TW)</t>
+  </si>
+  <si>
     <t>Moses Moody</t>
   </si>
   <si>
-    <t>Anthony Lamb (TW)</t>
-  </si>
-  <si>
-    <t>Klay Thompson</t>
-  </si>
-  <si>
-    <t>Jonathan Kuminga</t>
-  </si>
-  <si>
-    <t>Donte DiVincenzo</t>
-  </si>
-  <si>
     <t>Stephen Curry</t>
   </si>
   <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
     <t>JaMychal Green</t>
   </si>
   <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
     <t>Ty Jerome (TW)</t>
   </si>
   <si>
-    <t>James Wiseman</t>
-  </si>
-  <si>
     <t>Patrick Baldwin Jr.</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
     <t>Andre Iguodala</t>
   </si>
   <si>
+    <t>Gary Payton II</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
@@ -130,7 +130,7 @@
     <t>6-5</t>
   </si>
   <si>
-    <t>7-0</t>
+    <t>6-3</t>
   </si>
   <si>
     <t>June 19, 1999</t>
@@ -142,36 +142,33 @@
     <t>March 4, 1990</t>
   </si>
   <si>
+    <t>January 31, 1997</t>
+  </si>
+  <si>
+    <t>February 8, 1990</t>
+  </si>
+  <si>
+    <t>October 6, 2002</t>
+  </si>
+  <si>
+    <t>January 20, 1998</t>
+  </si>
+  <si>
     <t>May 31, 2002</t>
   </si>
   <si>
-    <t>January 20, 1998</t>
-  </si>
-  <si>
-    <t>February 8, 1990</t>
-  </si>
-  <si>
-    <t>October 6, 2002</t>
-  </si>
-  <si>
-    <t>January 31, 1997</t>
-  </si>
-  <si>
     <t>March 14, 1988</t>
   </si>
   <si>
+    <t>February 23, 1995</t>
+  </si>
+  <si>
     <t>June 21, 1990</t>
   </si>
   <si>
-    <t>February 23, 1995</t>
-  </si>
-  <si>
     <t>July 8, 1997</t>
   </si>
   <si>
-    <t>March 31, 2001</t>
-  </si>
-  <si>
     <t>November 18, 2002</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
     <t>January 28, 1984</t>
   </si>
   <si>
+    <t>December 1, 1992</t>
+  </si>
+  <si>
     <t>us</t>
   </si>
   <si>
@@ -199,18 +199,18 @@
     <t>10</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
@@ -223,6 +223,9 @@
     <t>18</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>Michigan</t>
   </si>
   <si>
@@ -232,33 +235,30 @@
     <t>Michigan State</t>
   </si>
   <si>
+    <t>Villanova</t>
+  </si>
+  <si>
+    <t>Washington State</t>
+  </si>
+  <si>
+    <t>University of Vermont</t>
+  </si>
+  <si>
     <t>Arkansas</t>
   </si>
   <si>
-    <t>University of Vermont</t>
-  </si>
-  <si>
-    <t>Washington State</t>
-  </si>
-  <si>
-    <t>Villanova</t>
-  </si>
-  <si>
     <t>Davidson</t>
   </si>
   <si>
+    <t>Kansas</t>
+  </si>
+  <si>
     <t>Alabama</t>
   </si>
   <si>
-    <t>Kansas</t>
-  </si>
-  <si>
     <t>Virginia</t>
   </si>
   <si>
-    <t>Memphis</t>
-  </si>
-  <si>
     <t>UW-Milwaukee</t>
   </si>
   <si>
@@ -268,6 +268,9 @@
     <t>Arizona</t>
   </si>
   <si>
+    <t>Oregon State</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/p/poolejo01.html</t>
   </si>
   <si>
@@ -277,36 +280,33 @@
     <t>https://www.basketball-reference.com/players/g/greendr01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/d/divindo01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/t/thompkl01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/k/kuminjo01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/l/lamban01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/m/moodymo01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/l/lamban01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/t/thompkl01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/k/kuminjo01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/d/divindo01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/c/curryst01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/w/wiggian01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/g/greenja01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/w/wiggian01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/j/jeromty01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/w/wisemja01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/b/baldwpa01.html</t>
   </si>
   <si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/i/iguodan01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/p/paytoga02.html</t>
   </si>
 </sst>
 </file>
@@ -751,10 +754,10 @@
         <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -786,10 +789,10 @@
         <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -821,10 +824,10 @@
         <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -832,7 +835,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -841,10 +844,10 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G5" t="s">
         <v>42</v>
@@ -856,10 +859,10 @@
         <v>61</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -867,19 +870,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
         <v>33</v>
       </c>
       <c r="F6">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="G6" t="s">
         <v>43</v>
@@ -891,10 +894,10 @@
         <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -902,34 +905,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G7" t="s">
         <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
         <v>63</v>
       </c>
-      <c r="J7" t="s">
-        <v>74</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -937,31 +937,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="J8" t="s">
+        <v>75</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -969,7 +972,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -978,10 +981,10 @@
         <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F9">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -990,13 +993,13 @@
         <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1028,10 +1031,10 @@
         <v>65</v>
       </c>
       <c r="J10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1039,34 +1042,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F11">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="G11" t="s">
         <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I11" t="s">
         <v>66</v>
       </c>
       <c r="J11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1074,34 +1077,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F12">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="G12" t="s">
         <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I12" t="s">
         <v>66</v>
       </c>
       <c r="J12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1133,10 +1136,10 @@
         <v>58</v>
       </c>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1144,19 +1147,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F14">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="G14" t="s">
         <v>51</v>
@@ -1165,13 +1168,13 @@
         <v>55</v>
       </c>
       <c r="I14" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1179,19 +1182,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="G15" t="s">
         <v>52</v>
@@ -1203,10 +1206,10 @@
         <v>67</v>
       </c>
       <c r="J15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1214,19 +1217,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F16">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="G16" t="s">
         <v>53</v>
@@ -1235,33 +1238,30 @@
         <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>9</v>
-      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F17">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="G17" t="s">
         <v>54</v>
@@ -1270,13 +1270,13 @@
         <v>55</v>
       </c>
       <c r="I17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/rosters/2023/Golden State/Golden State.xlsx
+++ b/rosters/2023/Golden State/Golden State.xlsx
@@ -64,21 +64,21 @@
     <t>Jonathan Kuminga</t>
   </si>
   <si>
+    <t>Moses Moody</t>
+  </si>
+  <si>
     <t>Anthony Lamb (TW)</t>
   </si>
   <si>
-    <t>Moses Moody</t>
-  </si>
-  <si>
     <t>Stephen Curry</t>
   </si>
   <si>
+    <t>JaMychal Green</t>
+  </si>
+  <si>
     <t>Andrew Wiggins</t>
   </si>
   <si>
-    <t>JaMychal Green</t>
-  </si>
-  <si>
     <t>Ty Jerome (TW)</t>
   </si>
   <si>
@@ -151,21 +151,21 @@
     <t>October 6, 2002</t>
   </si>
   <si>
+    <t>May 31, 2002</t>
+  </si>
+  <si>
     <t>January 20, 1998</t>
   </si>
   <si>
-    <t>May 31, 2002</t>
-  </si>
-  <si>
     <t>March 14, 1988</t>
   </si>
   <si>
+    <t>June 21, 1990</t>
+  </si>
+  <si>
     <t>February 23, 1995</t>
   </si>
   <si>
-    <t>June 21, 1990</t>
-  </si>
-  <si>
     <t>July 8, 1997</t>
   </si>
   <si>
@@ -241,21 +241,21 @@
     <t>Washington State</t>
   </si>
   <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
     <t>University of Vermont</t>
   </si>
   <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
     <t>Davidson</t>
   </si>
   <si>
+    <t>Alabama</t>
+  </si>
+  <si>
     <t>Kansas</t>
   </si>
   <si>
-    <t>Alabama</t>
-  </si>
-  <si>
     <t>Virginia</t>
   </si>
   <si>
@@ -289,19 +289,19 @@
     <t>https://www.basketball-reference.com/players/k/kuminjo01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/m/moodymo01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/l/lamban01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/m/moodymo01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/c/curryst01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/g/greenja01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/w/wiggian01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/g/greenja01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/j/jeromty01.html</t>
@@ -937,19 +937,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
         <v>33</v>
       </c>
       <c r="F8">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -958,7 +958,7 @@
         <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J8" t="s">
         <v>75</v>
@@ -972,19 +972,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
         <v>33</v>
       </c>
       <c r="F9">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -993,7 +993,7 @@
         <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J9" t="s">
         <v>76</v>
@@ -1042,25 +1042,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="G11" t="s">
         <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s">
         <v>66</v>
@@ -1077,25 +1077,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F12">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="G12" t="s">
         <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I12" t="s">
         <v>66</v>

--- a/rosters/2023/Golden State/Golden State.xlsx
+++ b/rosters/2023/Golden State/Golden State.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="105">
   <si>
     <t>No.</t>
   </si>
@@ -64,24 +64,24 @@
     <t>Jonathan Kuminga</t>
   </si>
   <si>
+    <t>Anthony Lamb (TW)</t>
+  </si>
+  <si>
     <t>Moses Moody</t>
   </si>
   <si>
-    <t>Anthony Lamb (TW)</t>
+    <t>JaMychal Green</t>
+  </si>
+  <si>
+    <t>Ty Jerome (TW)</t>
   </si>
   <si>
     <t>Stephen Curry</t>
   </si>
   <si>
-    <t>JaMychal Green</t>
-  </si>
-  <si>
     <t>Andrew Wiggins</t>
   </si>
   <si>
-    <t>Ty Jerome (TW)</t>
-  </si>
-  <si>
     <t>Patrick Baldwin Jr.</t>
   </si>
   <si>
@@ -91,6 +91,9 @@
     <t>Andre Iguodala</t>
   </si>
   <si>
+    <t>Lester Quinones</t>
+  </si>
+  <si>
     <t>Gary Payton II</t>
   </si>
   <si>
@@ -121,15 +124,15 @@
     <t>6-8</t>
   </si>
   <si>
+    <t>6-5</t>
+  </si>
+  <si>
     <t>6-2</t>
   </si>
   <si>
     <t>6-7</t>
   </si>
   <si>
-    <t>6-5</t>
-  </si>
-  <si>
     <t>6-3</t>
   </si>
   <si>
@@ -151,24 +154,24 @@
     <t>October 6, 2002</t>
   </si>
   <si>
+    <t>January 20, 1998</t>
+  </si>
+  <si>
     <t>May 31, 2002</t>
   </si>
   <si>
-    <t>January 20, 1998</t>
+    <t>June 21, 1990</t>
+  </si>
+  <si>
+    <t>July 8, 1997</t>
   </si>
   <si>
     <t>March 14, 1988</t>
   </si>
   <si>
-    <t>June 21, 1990</t>
-  </si>
-  <si>
     <t>February 23, 1995</t>
   </si>
   <si>
-    <t>July 8, 1997</t>
-  </si>
-  <si>
     <t>November 18, 2002</t>
   </si>
   <si>
@@ -178,6 +181,9 @@
     <t>January 28, 1984</t>
   </si>
   <si>
+    <t>November 16, 2000</t>
+  </si>
+  <si>
     <t>December 1, 1992</t>
   </si>
   <si>
@@ -211,12 +217,12 @@
     <t>2</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -241,24 +247,24 @@
     <t>Washington State</t>
   </si>
   <si>
+    <t>University of Vermont</t>
+  </si>
+  <si>
     <t>Arkansas</t>
   </si>
   <si>
-    <t>University of Vermont</t>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Virginia</t>
   </si>
   <si>
     <t>Davidson</t>
   </si>
   <si>
-    <t>Alabama</t>
-  </si>
-  <si>
     <t>Kansas</t>
   </si>
   <si>
-    <t>Virginia</t>
-  </si>
-  <si>
     <t>UW-Milwaukee</t>
   </si>
   <si>
@@ -268,6 +274,9 @@
     <t>Arizona</t>
   </si>
   <si>
+    <t>Memphis</t>
+  </si>
+  <si>
     <t>Oregon State</t>
   </si>
   <si>
@@ -289,24 +298,24 @@
     <t>https://www.basketball-reference.com/players/k/kuminjo01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/l/lamban01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/m/moodymo01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/l/lamban01.html</t>
+    <t>https://www.basketball-reference.com/players/g/greenja01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/j/jeromty01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/c/curryst01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/g/greenja01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/w/wiggian01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/j/jeromty01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/b/baldwpa01.html</t>
   </si>
   <si>
@@ -314,6 +323,9 @@
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/i/iguodan01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/q/quinole01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/p/paytoga02.html</t>
@@ -687,7 +699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,28 +748,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>194</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -771,28 +783,28 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>222</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -806,28 +818,28 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4">
         <v>230</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -841,28 +853,28 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5">
         <v>203</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -876,28 +888,28 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>215</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -911,25 +923,25 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7">
         <v>210</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -937,34 +949,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -972,7 +984,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -981,25 +993,25 @@
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1007,34 +1019,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
         <v>35</v>
       </c>
       <c r="F10">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1042,34 +1054,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F11">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1077,34 +1089,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
         <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1112,34 +1124,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="J13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1153,28 +1165,28 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14">
         <v>220</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1188,28 +1200,28 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15">
         <v>180</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1223,28 +1235,28 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F16">
         <v>215</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1255,28 +1267,60 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F17">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I17" t="s">
         <v>69</v>
       </c>
       <c r="J17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18">
+        <v>190</v>
+      </c>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" t="s">
+        <v>71</v>
+      </c>
+      <c r="J18" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1297,6 +1341,7 @@
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
     <hyperlink ref="K17" r:id="rId16"/>
+    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/Golden State/Golden State.xlsx
+++ b/rosters/2023/Golden State/Golden State.xlsx
@@ -64,12 +64,12 @@
     <t>Jonathan Kuminga</t>
   </si>
   <si>
+    <t>Moses Moody</t>
+  </si>
+  <si>
     <t>Anthony Lamb (TW)</t>
   </si>
   <si>
-    <t>Moses Moody</t>
-  </si>
-  <si>
     <t>JaMychal Green</t>
   </si>
   <si>
@@ -154,12 +154,12 @@
     <t>October 6, 2002</t>
   </si>
   <si>
+    <t>May 31, 2002</t>
+  </si>
+  <si>
     <t>January 20, 1998</t>
   </si>
   <si>
-    <t>May 31, 2002</t>
-  </si>
-  <si>
     <t>June 21, 1990</t>
   </si>
   <si>
@@ -247,12 +247,12 @@
     <t>Washington State</t>
   </si>
   <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
     <t>University of Vermont</t>
   </si>
   <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
     <t>Alabama</t>
   </si>
   <si>
@@ -298,10 +298,10 @@
     <t>https://www.basketball-reference.com/players/k/kuminjo01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/m/moodymo01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/l/lamban01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/m/moodymo01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/g/greenja01.html</t>
@@ -949,19 +949,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
         <v>34</v>
       </c>
       <c r="F8">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -970,7 +970,7 @@
         <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
         <v>77</v>
@@ -984,19 +984,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
       </c>
       <c r="F9">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="G9" t="s">
         <v>47</v>
@@ -1005,7 +1005,7 @@
         <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J9" t="s">
         <v>78</v>

--- a/rosters/2023/Golden State/Golden State.xlsx
+++ b/rosters/2023/Golden State/Golden State.xlsx
@@ -67,18 +67,18 @@
     <t>Moses Moody</t>
   </si>
   <si>
-    <t>Anthony Lamb (TW)</t>
+    <t>Anthony Lamb</t>
   </si>
   <si>
     <t>JaMychal Green</t>
   </si>
   <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
     <t>Ty Jerome (TW)</t>
   </si>
   <si>
-    <t>Stephen Curry</t>
-  </si>
-  <si>
     <t>Andrew Wiggins</t>
   </si>
   <si>
@@ -91,7 +91,7 @@
     <t>Andre Iguodala</t>
   </si>
   <si>
-    <t>Lester Quinones</t>
+    <t>Lester Quinones (TW)</t>
   </si>
   <si>
     <t>Gary Payton II</t>
@@ -124,12 +124,12 @@
     <t>6-8</t>
   </si>
   <si>
+    <t>6-2</t>
+  </si>
+  <si>
     <t>6-5</t>
   </si>
   <si>
-    <t>6-2</t>
-  </si>
-  <si>
     <t>6-7</t>
   </si>
   <si>
@@ -163,12 +163,12 @@
     <t>June 21, 1990</t>
   </si>
   <si>
+    <t>March 14, 1988</t>
+  </si>
+  <si>
     <t>July 8, 1997</t>
   </si>
   <si>
-    <t>March 14, 1988</t>
-  </si>
-  <si>
     <t>February 23, 1995</t>
   </si>
   <si>
@@ -256,12 +256,12 @@
     <t>Alabama</t>
   </si>
   <si>
+    <t>Davidson</t>
+  </si>
+  <si>
     <t>Virginia</t>
   </si>
   <si>
-    <t>Davidson</t>
-  </si>
-  <si>
     <t>Kansas</t>
   </si>
   <si>
@@ -307,10 +307,10 @@
     <t>https://www.basketball-reference.com/players/g/greenja01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/c/curryst01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/j/jeromty01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/c/curryst01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/w/wiggian01.html</t>
@@ -1054,19 +1054,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
       </c>
       <c r="F11">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="G11" t="s">
         <v>49</v>
@@ -1075,7 +1075,7 @@
         <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="J11" t="s">
         <v>80</v>
@@ -1089,19 +1089,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
         <v>37</v>
       </c>
       <c r="F12">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="G12" t="s">
         <v>50</v>
@@ -1110,7 +1110,7 @@
         <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J12" t="s">
         <v>81</v>
@@ -1270,7 +1270,7 @@
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17">
         <v>208</v>

--- a/rosters/2023/Golden State/Golden State.xlsx
+++ b/rosters/2023/Golden State/Golden State.xlsx
@@ -91,12 +91,12 @@
     <t>Andre Iguodala</t>
   </si>
   <si>
+    <t>Gary Payton II</t>
+  </si>
+  <si>
     <t>Lester Quinones (TW)</t>
   </si>
   <si>
-    <t>Gary Payton II</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -181,12 +181,12 @@
     <t>January 28, 1984</t>
   </si>
   <si>
+    <t>December 1, 1992</t>
+  </si>
+  <si>
     <t>November 16, 2000</t>
   </si>
   <si>
-    <t>December 1, 1992</t>
-  </si>
-  <si>
     <t>us</t>
   </si>
   <si>
@@ -274,12 +274,12 @@
     <t>Arizona</t>
   </si>
   <si>
+    <t>Oregon State</t>
+  </si>
+  <si>
     <t>Memphis</t>
   </si>
   <si>
-    <t>Oregon State</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/p/poolejo01.html</t>
   </si>
   <si>
@@ -325,10 +325,10 @@
     <t>https://www.basketball-reference.com/players/i/iguodan01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/p/paytoga02.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/q/quinole01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/p/paytoga02.html</t>
   </si>
 </sst>
 </file>
@@ -1263,17 +1263,20 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="G17" t="s">
         <v>55</v>
@@ -1282,7 +1285,7 @@
         <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J17" t="s">
         <v>86</v>
@@ -1299,13 +1302,13 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F18">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="G18" t="s">
         <v>56</v>
@@ -1314,7 +1317,7 @@
         <v>57</v>
       </c>
       <c r="I18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J18" t="s">
         <v>87</v>
